--- a/SpMVC_005_RentBookV2/document/샘플-도서대여점_회원관리(2023-07-25).xlsx
+++ b/SpMVC_005_RentBookV2/document/샘플-도서대여점_회원관리(2023-07-25).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505001\Documents\workspace\springMVC\SpMVC_005_RentBookV2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\개발자문서\710. 원데이 프로젝트\Server Project\One Day 회원관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ABE088-2455-4151-959E-CE7A54034E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84624AD-0D47-4CE6-8D76-C474DD3773B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8037,7 +8037,7 @@
   <dimension ref="A1:G521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
